--- a/data/llibre_Input_Output_Estacio_gasos.xlsx
+++ b/data/llibre_Input_Output_Estacio_gasos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pau\Desktop\TFG\gasControlFuncional\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pau\Desktop\TestingGIT\gasController\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CED307-854C-4AA1-817C-92B9EF4C86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6467F-9D10-48E5-999F-7CBA8FE8F04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{B14299D3-704D-40A3-A1AE-B5032476EE5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{B14299D3-704D-40A3-A1AE-B5032476EE5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Full1" sheetId="1" r:id="rId1"/>
@@ -4875,7 +4875,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5098,10 +5098,8 @@
         <v>20</v>
       </c>
       <c r="L6" s="32"/>
-      <c r="M6" s="32">
-        <f t="shared" ref="M6:M13" si="0">SUM(I6:K6)</f>
-        <v>20</v>
-      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
         <v>93</v>
       </c>
@@ -5132,10 +5130,8 @@
         <v>0</v>
       </c>
       <c r="L7" s="32"/>
-      <c r="M7" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
         <v>94</v>
       </c>
@@ -5166,10 +5162,8 @@
         <v>10</v>
       </c>
       <c r="L8" s="32"/>
-      <c r="M8" s="32">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
         <v>93</v>
       </c>
@@ -5200,10 +5194,8 @@
         <v>20</v>
       </c>
       <c r="L9" s="32"/>
-      <c r="M9" s="32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="28" t="s">
         <v>97</v>
       </c>
@@ -5234,10 +5226,8 @@
         <v>35</v>
       </c>
       <c r="L10" s="32"/>
-      <c r="M10" s="32">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="28" t="s">
         <v>94</v>
       </c>
@@ -5268,10 +5258,8 @@
         <v>30</v>
       </c>
       <c r="L11" s="32"/>
-      <c r="M11" s="32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="28"/>
       <c r="O11" s="28" t="s">
         <v>98</v>
       </c>
@@ -5302,10 +5290,8 @@
         <v>20</v>
       </c>
       <c r="L12" s="32"/>
-      <c r="M12" s="32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="28" t="s">
         <v>95</v>
       </c>
@@ -5332,12 +5318,12 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="32">
+        <v>0</v>
+      </c>
       <c r="L13" s="32"/>
-      <c r="M13" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="28" t="s">
         <v>95</v>
       </c>
@@ -5383,6 +5369,7 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
